--- a/1des/sop/aula09/recuperacao.xlsx
+++ b/1des/sop/aula09/recuperacao.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01E77B0-4A19-4D06-95BB-457C6D3AB5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260E6A0-9341-4E09-A23E-136F059065F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F3A3533-8389-48C1-8BCA-3B51B8FA87F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{8F3A3533-8389-48C1-8BCA-3B51B8FA87F0}"/>
   </bookViews>
   <sheets>
     <sheet name="FasesDaVida" sheetId="1" r:id="rId1"/>
     <sheet name="Sangue01" sheetId="2" r:id="rId2"/>
+    <sheet name="Sangue02" sheetId="3" r:id="rId3"/>
+    <sheet name="fgts" sheetId="4" r:id="rId4"/>
+    <sheet name="inss" sheetId="5" r:id="rId5"/>
+    <sheet name="irrf" sheetId="8" r:id="rId6"/>
+    <sheet name="totalSalario" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>Nome</t>
   </si>
@@ -64,6 +69,69 @@
   </si>
   <si>
     <t>Validar Idade</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>FGTS</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>Bárbara</t>
+  </si>
+  <si>
+    <t>Rosalina</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>IRRF</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
   </si>
 </sst>
 </file>
@@ -417,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F963B60-9F94-4EA2-8BD0-A374D5709642}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +577,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,4 +679,566 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D73B90-855F-40DC-8EE3-B96C327B4849}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(AND(B2&gt;=18,B2&lt;=69),IF(C2="M",IF(D2&gt;=60,"Apto","Inapto"),IF(C2="F",IF(D2&gt;=90,"Apto","Inapto"),"Opção inválida para doar sangue")),"Inapto")</f>
+        <v>Inapto</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">IF(AND(B3&gt;=18,B3&lt;=69),IF(C3="M",IF(D3&gt;=60,"Apto","Inapto"),IF(C3="F",IF(D3&gt;=90,"Apto","Inapto"),"Opção inválida para doar sangue")),"Inapto")</f>
+        <v>Inapto</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Apto</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(AND(B5&gt;=18,B5&lt;=69),IF(C5="M",IF(D5&gt;=60,"Apto","Inapto"),IF(C5="F",IF(D5&gt;=90,"Apto","Inapto"),"Opção inválida para doar sangue")),"Inapto")</f>
+        <v>Inapto</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Opção inválida para doar sangue</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7BC91-804F-4C96-9E37-BDF94818F434}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <f>B2*8/100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">B3*8/100</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38D696B-8C50-4B01-B3B6-526E0BD26FB0}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <f>IF(B2&lt;=1212,B2*7.5%,IF(B2&lt;=2427.35,B2*9%,IF(B2&lt;=3641.03,B2*12%,IF(B2&lt;=7087.22,B2*14%,7087.22*14%))))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">IF(B3&lt;=1212,B3*7.5%,IF(B3&lt;=2427.35,B3*9%,IF(B3&lt;=3641.03,B3*12%,IF(B3&lt;=7087.22,B3*14%,7087.22*14%))))</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>700.00000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>840.00000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>7000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>980.00000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>8000</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>992.21080000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>992.21080000000018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902FCE74-A84A-4CF9-AD33-B35895546CDD}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <f>IF(B2&lt;=1903.99,0,IF(B2&lt;2826.66,B2*7.5%-142.8,IF(B2&lt;3751.06,B2*15%-354.8,IF(B2&lt;4664.68,B2*22.5%-636.13,B2*27.5%-869.36))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">IF(B3&lt;=1903.99,0,IF(B3&lt;2826.66,B3*7.5%-142.8,IF(B3&lt;3751.06,B3*15%-354.8,IF(B3&lt;4664.68,B3*22.5%-636.13,B3*27.5%-869.36))))</f>
+        <v>7.1999999999999886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>95.199999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>263.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>505.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>780.64000000000021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>7000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1055.6400000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>8000</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1330.6399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1880.6399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372B5496-2A22-4FB5-819D-77FC94E4370D}">
+  <dimension ref="A7:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B8:B12)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B8:B12)</f>
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/1des/sop/aula09/recuperacao.xlsx
+++ b/1des/sop/aula09/recuperacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260E6A0-9341-4E09-A23E-136F059065F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAA336-7E5A-4603-A216-75D8CECACA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{8F3A3533-8389-48C1-8BCA-3B51B8FA87F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{8F3A3533-8389-48C1-8BCA-3B51B8FA87F0}"/>
   </bookViews>
   <sheets>
     <sheet name="FasesDaVida" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="fgts" sheetId="4" r:id="rId4"/>
     <sheet name="inss" sheetId="5" r:id="rId5"/>
     <sheet name="irrf" sheetId="8" r:id="rId6"/>
-    <sheet name="totalSalario" sheetId="9" r:id="rId7"/>
+    <sheet name="estatistica_salarios" sheetId="9" r:id="rId7"/>
+    <sheet name="salarios2" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
   <si>
     <t>Nome</t>
   </si>
@@ -132,14 +133,34 @@
   </si>
   <si>
     <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>Mais bem pago</t>
+  </si>
+  <si>
+    <t>Menos pago</t>
+  </si>
+  <si>
+    <t>Sal. Líquido</t>
+  </si>
+  <si>
+    <t>Sal. Base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -167,8 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,25 +508,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F963B60-9F94-4EA2-8BD0-A374D5709642}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -514,7 +535,7 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <f>IF(B2&lt;10,"Criança",IF(B2&lt;20,"Jovem",IF(B2&lt;60,"Adulto","Idoso")))</f>
         <v>Criança</v>
       </c>
@@ -526,7 +547,7 @@
       <c r="B3">
         <v>18</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C6" si="0">IF(B3&lt;10,"Criança",IF(B3&lt;20,"Jovem",IF(B3&lt;60,"Adulto","Idoso")))</f>
         <v>Jovem</v>
       </c>
@@ -538,7 +559,7 @@
       <c r="B4">
         <v>44</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Adulto</v>
       </c>
@@ -550,7 +571,7 @@
       <c r="B5">
         <v>95</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Idoso</v>
       </c>
@@ -562,7 +583,7 @@
       <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Adulto</v>
       </c>
@@ -576,28 +597,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D65127-5563-478F-B2DA-7A88D5B9ADA2}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -611,7 +630,7 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f>IF(AND(B2&gt;=18, B2&lt;=69, C2&gt;50),"Pode doar","Não pode doar")</f>
         <v>Não pode doar</v>
       </c>
@@ -626,7 +645,7 @@
       <c r="C3">
         <v>55</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D6" si="0">IF(AND(B3&gt;=18, B3&lt;=69, C3&gt;50),"Pode doar","Não pode doar")</f>
         <v>Pode doar</v>
       </c>
@@ -641,7 +660,7 @@
       <c r="C4">
         <v>44</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Não pode doar</v>
       </c>
@@ -656,7 +675,7 @@
       <c r="C5">
         <v>75</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Não pode doar</v>
       </c>
@@ -671,7 +690,7 @@
       <c r="C6">
         <v>80</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pode doar</v>
       </c>
@@ -683,11 +702,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D73B90-855F-40DC-8EE3-B96C327B4849}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -697,19 +714,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -726,7 +743,7 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="1" t="str">
         <f>IF(AND(B2&gt;=18,B2&lt;=69),IF(C2="M",IF(D2&gt;=60,"Apto","Inapto"),IF(C2="F",IF(D2&gt;=90,"Apto","Inapto"),"Opção inválida para doar sangue")),"Inapto")</f>
         <v>Inapto</v>
       </c>
@@ -744,7 +761,7 @@
       <c r="D3">
         <v>51</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E6" si="0">IF(AND(B3&gt;=18,B3&lt;=69),IF(C3="M",IF(D3&gt;=60,"Apto","Inapto"),IF(C3="F",IF(D3&gt;=90,"Apto","Inapto"),"Opção inválida para doar sangue")),"Inapto")</f>
         <v>Inapto</v>
       </c>
@@ -762,7 +779,7 @@
       <c r="D4">
         <v>95</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Apto</v>
       </c>
@@ -780,7 +797,7 @@
       <c r="D5">
         <v>100</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <f>IF(AND(B5&gt;=18,B5&lt;=69),IF(C5="M",IF(D5&gt;=60,"Apto","Inapto"),IF(C5="F",IF(D5&gt;=90,"Apto","Inapto"),"Opção inválida para doar sangue")),"Inapto")</f>
         <v>Inapto</v>
       </c>
@@ -798,10 +815,19 @@
       <c r="D6">
         <v>95</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Opção inválida para doar sangue</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -812,9 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7BC91-804F-4C96-9E37-BDF94818F434}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -898,20 +922,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38D696B-8C50-4B01-B3B6-526E0BD26FB0}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -922,7 +946,7 @@
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>IF(B2&lt;=1212,B2*7.5%,IF(B2&lt;=2427.35,B2*9%,IF(B2&lt;=3641.03,B2*12%,IF(B2&lt;=7087.22,B2*14%,7087.22*14%))))</f>
         <v>75</v>
       </c>
@@ -934,7 +958,7 @@
       <c r="B3">
         <v>2000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C10" si="0">IF(B3&lt;=1212,B3*7.5%,IF(B3&lt;=2427.35,B3*9%,IF(B3&lt;=3641.03,B3*12%,IF(B3&lt;=7087.22,B3*14%,7087.22*14%))))</f>
         <v>180</v>
       </c>
@@ -946,7 +970,7 @@
       <c r="B4">
         <v>3000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
@@ -958,7 +982,7 @@
       <c r="B5">
         <v>4000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
@@ -970,7 +994,7 @@
       <c r="B6">
         <v>5000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>700.00000000000011</v>
       </c>
@@ -982,7 +1006,7 @@
       <c r="B7">
         <v>6000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>840.00000000000011</v>
       </c>
@@ -994,7 +1018,7 @@
       <c r="B8">
         <v>7000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>980.00000000000011</v>
       </c>
@@ -1006,7 +1030,7 @@
       <c r="B9">
         <v>8000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>992.21080000000018</v>
       </c>
@@ -1018,7 +1042,7 @@
       <c r="B10">
         <v>10000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>992.21080000000018</v>
       </c>
@@ -1032,20 +1056,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902FCE74-A84A-4CF9-AD33-B35895546CDD}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1056,7 +1080,7 @@
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>IF(B2&lt;=1903.99,0,IF(B2&lt;2826.66,B2*7.5%-142.8,IF(B2&lt;3751.06,B2*15%-354.8,IF(B2&lt;4664.68,B2*22.5%-636.13,B2*27.5%-869.36))))</f>
         <v>0</v>
       </c>
@@ -1068,7 +1092,7 @@
       <c r="B3">
         <v>2000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C10" si="0">IF(B3&lt;=1903.99,0,IF(B3&lt;2826.66,B3*7.5%-142.8,IF(B3&lt;3751.06,B3*15%-354.8,IF(B3&lt;4664.68,B3*22.5%-636.13,B3*27.5%-869.36))))</f>
         <v>7.1999999999999886</v>
       </c>
@@ -1080,7 +1104,7 @@
       <c r="B4">
         <v>3000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>95.199999999999989</v>
       </c>
@@ -1092,7 +1116,7 @@
       <c r="B5">
         <v>4000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>263.87</v>
       </c>
@@ -1104,7 +1128,7 @@
       <c r="B6">
         <v>5000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>505.64</v>
       </c>
@@ -1116,7 +1140,7 @@
       <c r="B7">
         <v>6000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>780.64000000000021</v>
       </c>
@@ -1128,7 +1152,7 @@
       <c r="B8">
         <v>7000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>1055.6400000000003</v>
       </c>
@@ -1140,7 +1164,7 @@
       <c r="B9">
         <v>8000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>1330.6399999999999</v>
       </c>
@@ -1152,7 +1176,7 @@
       <c r="B10">
         <v>10000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>1880.6399999999999</v>
       </c>
@@ -1164,81 +1188,402 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372B5496-2A22-4FB5-819D-77FC94E4370D}">
-  <dimension ref="A7:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <f>MAX(B2:B6)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <f>MIN(B2:B6)</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC1BA44-2F4F-4639-9AD5-B47C3548A380}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2">
+        <f>IF(B2&lt;=1212,B2*7.5%,IF(B2&lt;=2427.35,B2*9%,IF(B2&lt;=3641.03,B2*12%,IF(B2&lt;=7087.22,B2*14%,7087.22*14%))))</f>
+        <v>135</v>
+      </c>
+      <c r="D2">
+        <f>B2*8%</f>
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <f>B2-C2</f>
+        <v>1365</v>
+      </c>
+      <c r="F2" s="2">
+        <f>IF(E2&lt;=1903.99,0,IF(E2&lt;2826.66,E2*7.5%-142.8,IF(E2&lt;3751.06,E2*15%-354.8,IF(E2&lt;4664.68,E2*22.5%-636.13,E2*27.5%-869.36))))</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B3">
+        <v>2500</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">IF(B3&lt;=1212,B3*7.5%,IF(B3&lt;=2427.35,B3*9%,IF(B3&lt;=3641.03,B3*12%,IF(B3&lt;=7087.22,B3*14%,7087.22*14%))))</f>
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">B3*8%</f>
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="2">B3-C3</f>
+        <v>2200</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" si="3">IF(E3&lt;=1903.99,0,IF(E3&lt;2826.66,E3*7.5%-142.8,IF(E3&lt;3751.06,E3*15%-354.8,IF(E3&lt;4664.68,E3*22.5%-636.13,E3*27.5%-869.36))))</f>
+        <v>22.199999999999989</v>
+      </c>
+      <c r="G3">
+        <f>E3-F3</f>
+        <v>2177.8000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B4">
+        <v>3500</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>3080</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="3"/>
+        <v>107.19999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G6" si="4">E4-F4</f>
+        <v>2972.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B5">
+        <v>5500</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>770.00000000000011</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>4730</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
+        <v>431.39</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4298.6099999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>992.21080000000018</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>9007.7891999999993</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>1607.7820299999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>7400.007169999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <f>SUM(B8:B12)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B7" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>23000</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:G7" si="5">SUM(C2:C6)</f>
+        <v>2617.2108000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="5"/>
+        <v>1840</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="5"/>
+        <v>20382.789199999999</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>2168.5720299999998</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>18214.217169999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
-        <f>AVERAGE(B8:B12)</f>
-        <v>3000</v>
+      <c r="B8" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>4600</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:G8" si="6">AVERAGE(C2:C6)</f>
+        <v>523.44216000000006</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="6"/>
+        <v>368</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="6"/>
+        <v>4076.5578399999999</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="6"/>
+        <v>433.71440599999994</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="6"/>
+        <v>3642.8434339999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <f>MAX(B2:B6)</f>
+        <v>10000</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:G9" si="7">MAX(C2:C6)</f>
+        <v>992.21080000000018</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="7"/>
+        <v>9007.7891999999993</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="7"/>
+        <v>1607.7820299999998</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="7"/>
+        <v>7400.007169999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <f>MIN(B2:B6)</f>
+        <v>1500</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:G10" si="8">MIN(C2:C6)</f>
+        <v>135</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="8"/>
+        <v>1365</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="8"/>
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1des/sop/aula09/recuperacao.xlsx
+++ b/1des/sop/aula09/recuperacao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\sop\aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAA336-7E5A-4603-A216-75D8CECACA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38268DDE-B6C4-45AF-BD45-DDACB7145B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{8F3A3533-8389-48C1-8BCA-3B51B8FA87F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F3A3533-8389-48C1-8BCA-3B51B8FA87F0}"/>
   </bookViews>
   <sheets>
     <sheet name="FasesDaVida" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="inss" sheetId="5" r:id="rId5"/>
     <sheet name="irrf" sheetId="8" r:id="rId6"/>
     <sheet name="estatistica_salarios" sheetId="9" r:id="rId7"/>
-    <sheet name="salarios2" sheetId="10" r:id="rId8"/>
+    <sheet name="folha_pagamento" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -188,10 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F963B60-9F94-4EA2-8BD0-A374D5709642}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1292,9 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC1BA44-2F4F-4639-9AD5-B47C3548A380}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1345,7 +1345,7 @@
         <f>B2-C2</f>
         <v>1365</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <f>IF(E2&lt;=1903.99,0,IF(E2&lt;2826.66,E2*7.5%-142.8,IF(E2&lt;3751.06,E2*15%-354.8,IF(E2&lt;4664.68,E2*22.5%-636.13,E2*27.5%-869.36))))</f>
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <f t="shared" ref="E3:E6" si="2">B3-C3</f>
         <v>2200</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <f t="shared" ref="F3:F6" si="3">IF(E3&lt;=1903.99,0,IF(E3&lt;2826.66,E3*7.5%-142.8,IF(E3&lt;3751.06,E3*15%-354.8,IF(E3&lt;4664.68,E3*22.5%-636.13,E3*27.5%-869.36))))</f>
         <v>22.199999999999989</v>
       </c>
@@ -1401,7 +1401,7 @@
         <f t="shared" si="2"/>
         <v>3080</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <f t="shared" si="3"/>
         <v>107.19999999999999</v>
       </c>
@@ -1429,7 +1429,7 @@
         <f t="shared" si="2"/>
         <v>4730</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <f t="shared" si="3"/>
         <v>431.39</v>
       </c>
@@ -1457,7 +1457,7 @@
         <f t="shared" si="2"/>
         <v>9007.7891999999993</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <f t="shared" si="3"/>
         <v>1607.7820299999998</v>
       </c>
